--- a/biology/Zoologie/Carpophage_de_Mindoro/Carpophage_de_Mindoro.xlsx
+++ b/biology/Zoologie/Carpophage_de_Mindoro/Carpophage_de_Mindoro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula mindorensis
 Le Carpophage de Mindoro (Ducula mindorensis) est une espèce d'oiseaux de la famille des Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 47 cm de longueur.
 La tête, le cou et le dessous du corps sont bleu gris lumineux. Un trait noir marque l'arrière des yeux. La face et la gorge sont rose pâle. Le manteau et le dos sont pourpres, les ailes vert émeraude. Une bande grise traverse la queue. Le bec est noir et les pattes rougeâtres.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau ne vit que dans les forêts pluviales de Mindoro aux Philippines.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peuple les forêts montagneuses.
 </t>
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de gros fruits.
 </t>
@@ -638,7 +658,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est menacé par la chasse et la régression de son habitat.
 </t>
